--- a/R/data/class_roll240824.xlsx
+++ b/R/data/class_roll240824.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kwlee/Documents/class202402/R/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39E723BA-2061-384E-A65F-FA7CE4AD0260}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD4D086F-AA9A-CE40-A5EB-00EBD5E25123}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="55760" yWindow="3100" windowWidth="44800" windowHeight="24700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="51200" yWindow="3100" windowWidth="44800" windowHeight="24700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -13051,7 +13051,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I814"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A777" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A775" workbookViewId="0">
       <selection activeCell="P793" sqref="P793"/>
     </sheetView>
   </sheetViews>
